--- a/Pull Request Here/Connected Shelves - 2994051425/Connected Shelves - 2994051425.xlsx
+++ b/Pull Request Here/Connected Shelves - 2994051425/Connected Shelves - 2994051425.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PDSSO2\Desktop\RimworldExtractor-Standard\RIM EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D98E07-CF3B-4F21-807E-4AA4AFE4A45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1853BA0-3292-4DE1-A5BC-79E44710AA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6135" yWindow="735" windowWidth="17880" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>땅에 비해 세 배의 물건을 적재할 수 있는 연결형 삼중 선반입니다. 선반에 보관한 물건은 절대 손상되지 않고 주변 미관에도 영향을 주지 않습니다.\n\n옆에 붙은 선반들은 서로 연결됩니다.</t>
+    <t>맨땅에 비해 세 배의 물건을 적재할 수 있는 연결형 삼중 선반입니다. 선반에 보관한 물건은 절대 손상되지 않고 주변 미관에도 영향을 주지 않습니다.\n\n선반의 수납공간은 제한돼있으므로 바위 덩어리나 건물, 식물, 대형 시체 등은 보관할 수 없습니다.\n\n연결형 선반끼리는 서로 연결됩니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
